--- a/data/raw/interaction_matrices/willem_2012/0_5_10_15_20_25_30_35_40_45_50_55_60_65_70_75_80_85/school.xlsx
+++ b/data/raw/interaction_matrices/willem_2012/0_5_10_15_20_25_30_35_40_45_50_55_60_65_70_75_80_85/school.xlsx
@@ -247,64 +247,64 @@
       <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -312,58 +312,58 @@
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>3.40043568868025</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.53254387317324</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.0666710788154546</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>0.0312348622197696</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>0.0636710556680967</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>0.0652762325780407</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>0.0993680233405753</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>0.0953962534342519</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>0.0881496314219559</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>0.0694410955267662</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="1" t="n">
         <v>0.0255949663534185</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="1" t="n">
         <v>0.0159845958452383</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="1" t="n">
         <v>0.00308087557957815</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2" s="1" t="n">
         <v>0.00318711266852912</v>
       </c>
-      <c r="P2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="0" t="n">
+      <c r="P2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -371,58 +371,58 @@
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.559066149270141</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>5.94254034560138</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.460251189519608</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>0.0360681638101455</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>0.0583947768751097</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>0.135347289412342</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>0.151770364738261</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>0.153683987132587</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>0.130855955497588</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <v>0.127368467581472</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="1" t="n">
         <v>0.0393735315871267</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="1" t="n">
         <v>0.0831411008372708</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3" s="1" t="n">
         <v>0.00765162681834813</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3" s="1" t="n">
         <v>0.00780778246770218</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3" s="1" t="n">
         <v>0.00347012554120097</v>
       </c>
-      <c r="Q3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="0" t="n">
+      <c r="Q3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -430,58 +430,58 @@
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.0690210317333417</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.453869583853691</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>6.21278139485449</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>0.257110791334087</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>0.0400139111741957</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>0.0752804091582325</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.113926473753434</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>0.12704981966044</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>0.135414309566911</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <v>0.122302406470282</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="1" t="n">
         <v>0.0859055720123975</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="1" t="n">
         <v>0.0316494212677254</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4" s="1" t="n">
         <v>0.00632988425354508</v>
       </c>
-      <c r="O4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="0" t="n">
+      <c r="O4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="n">
         <v>0.00678201884308401</v>
       </c>
-      <c r="Q4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="0" t="n">
+      <c r="Q4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -489,58 +489,58 @@
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>0.0301781541967818</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>0.0331947427704357</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>0.239954787583935</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>4.80758056279075</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>0.328130462712246</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>0.0409945652317087</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>0.0547917675736155</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>0.0857610275065286</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>0.0592584877562472</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <v>0.113053995819747</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="1" t="n">
         <v>0.0671993236364813</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="1" t="n">
         <v>0.0152861090694507</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" s="1" t="n">
         <v>0.00833787767424584</v>
       </c>
-      <c r="O5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="0" t="n">
+      <c r="O5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -548,58 +548,58 @@
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>0.0603507686328886</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.0527238303552297</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>0.0366359784222934</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>0.321909821603168</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>1.33974951207768</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>0.0431128342669253</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>0.0498678288567341</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>0.0235623732962002</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>0.0158559487908509</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <v>0.0225506250054104</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="1" t="n">
         <v>0.011605348041412</v>
       </c>
-      <c r="M6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="0" t="n">
+      <c r="M6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -607,58 +607,58 @@
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>0.0586011835030909</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>0.11574255470977</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>0.0652813778937484</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>0.0380911875017106</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>0.0408335487780451</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>0.0183851633594333</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>0.0183851633594333</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>0.0119368752015569</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>0.0158199573173786</v>
       </c>
-      <c r="K7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="0" t="n">
+      <c r="K7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="n">
         <v>0.0130349221635799</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="1" t="n">
         <v>0.0171530427088637</v>
       </c>
-      <c r="N7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="0" t="n">
+      <c r="N7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -666,58 +666,58 @@
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>0.088212725698181</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>0.128340511000107</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>0.0976934128967297</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>0.0503438961730255</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>0.0467050988967087</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>0.0181802888058259</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>0.0163898902207612</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <v>0.0148866373158015</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <v>0.0308247657627937</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <v>0.0167740736102991</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="1" t="n">
         <v>0.0100772452032306</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="1" t="n">
         <v>0.00418852750086121</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8" s="1" t="n">
         <v>0.00400641760951941</v>
       </c>
-      <c r="O8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="0" t="n">
+      <c r="O8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -725,58 +725,58 @@
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>0.0814423681790166</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>0.124979818486627</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>0.104772947923004</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>0.0757802392178501</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>0.0212225395670346</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>0.0113516351039445</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>0.0143163099325132</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <v>0.0470494225348972</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="1" t="n">
         <v>0.0217046910252202</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="1" t="n">
         <v>0.0178542549249901</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="1" t="n">
         <v>0.0525283673924266</v>
       </c>
-      <c r="M9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="0" t="n">
+      <c r="M9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -784,58 +784,58 @@
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>0.0709217159832835</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>0.100286949837439</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>0.105239634164945</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>0.0493464846642611</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>0.0134589200612317</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>0.0141779269954781</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>0.0279366243777683</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <v>0.0204547072044478</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <v>0.0865923518601465</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <v>0.00904949163603043</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="1" t="n">
         <v>0.00390868254924273</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="1" t="n">
         <v>0.00866745994385887</v>
       </c>
-      <c r="N10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="0" t="n">
+      <c r="N10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -843,58 +843,58 @@
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>0.053647039596094</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>0.0937310142846311</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>0.091268357664062</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>0.0903986688954901</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>0.0183800642627367</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="0" t="n">
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="n">
         <v>0.0145976568766408</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <v>0.0161566699767582</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
         <v>0.00868949717162547</v>
       </c>
-      <c r="K11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="0" t="n">
+      <c r="K11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="n">
         <v>0.00306201328904897</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" s="1" t="n">
         <v>0.0165571714362054</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="N11" s="1" t="n">
         <v>0.00612402657809795</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="O11" s="1" t="n">
         <v>0.0124372571027358</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="P11" s="1" t="n">
         <v>0.0122480531561959</v>
       </c>
-      <c r="Q11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="0" t="n">
+      <c r="Q11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,58 +902,58 @@
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>0.0209967864560717</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>0.0307676859624949</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>0.0680731171677864</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>0.0570571521914419</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>0.0100442076506611</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>0.011911196920095</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>0.00931226880395304</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>0.0504746244595081</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="1" t="n">
         <v>0.00398538180699064</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="1" t="n">
         <v>0.00325144297855375</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="1" t="n">
         <v>0.0145124927991962</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="1" t="n">
         <v>0.011078585359002</v>
       </c>
-      <c r="N12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="0" t="n">
+      <c r="N12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -961,58 +961,58 @@
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>0.0145697437583004</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>0.0721868713972896</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>0.0278658350808125</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>0.0144209585679572</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="0" t="n">
+      <c r="F13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="n">
         <v>0.0174156671877084</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>0.00430058003268243</v>
       </c>
-      <c r="I13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0" t="n">
+      <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="n">
         <v>0.00981936407444002</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="1" t="n">
         <v>0.0195347205025747</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="1" t="n">
         <v>0.0123093832513165</v>
       </c>
-      <c r="M13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="0" t="n">
+      <c r="M13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="n">
         <v>0.0123093832513165</v>
       </c>
-      <c r="O13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="0" t="n">
+      <c r="O13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1020,58 +1020,58 @@
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>0.00303011617502725</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>0.00716854632436721</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>0.00601363305370493</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>0.00848765191486056</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="0" t="n">
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="n">
         <v>0.00443870972958152</v>
       </c>
-      <c r="I14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="0" t="n">
+      <c r="I14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="n">
         <v>0.00779637983077176</v>
       </c>
-      <c r="L14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="0" t="n">
+      <c r="L14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="n">
         <v>0.0132822349978325</v>
       </c>
-      <c r="N14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="0" t="n">
+      <c r="N14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1079,58 +1079,58 @@
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>0.00427277953638262</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>0.00997086804533081</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="0" t="n">
+      <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
         <v>0.0215828346254426</v>
       </c>
-      <c r="L15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="0" t="n">
+      <c r="L15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1138,58 +1138,58 @@
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="0" t="n">
+      <c r="B16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="n">
         <v>0.00459198528329844</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>0.00910076987874397</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="0" t="n">
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
         <v>0.0220242419916836</v>
       </c>
-      <c r="L16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="0" t="n">
+      <c r="L16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1197,58 +1197,58 @@
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="0" t="n">
+      <c r="B17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1256,58 +1256,58 @@
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" s="0" t="n">
+      <c r="B18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1315,58 +1315,58 @@
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" s="0" t="n">
+      <c r="B19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1392,64 +1392,64 @@
       <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1457,58 +1457,58 @@
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>2.0113902321116</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.221918164307483</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.0507927200591672</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>0.0145928189667439</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>0.0604839429995676</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>0.040509282840987</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>0.0859903222165185</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>0.0526919619045362</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>0.0615004662627932</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>0.056431138172155</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="1" t="n">
         <v>0.0127974831767092</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="1" t="n">
         <v>0.0124297394072636</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="1" t="n">
         <v>0.00308087557957815</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2" s="1" t="n">
         <v>0.00318711266852912</v>
       </c>
-      <c r="P2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="0" t="n">
+      <c r="P2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1516,58 +1516,58 @@
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.232970351969711</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>2.81679506742024</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.223058682103142</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>0.0183614839253089</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>0.0223649591130402</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>0.0483561994166355</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>0.0318877160258707</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>0.0461148154781972</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>0.0532168538354177</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <v>0.0527136738847345</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="1" t="n">
         <v>0.0119570611505382</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="1" t="n">
         <v>0.010844142316253</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3" s="1" t="n">
         <v>0.00374773558449704</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3" s="1" t="n">
         <v>0.00390389123385109</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3" s="1" t="n">
         <v>0.00347012554120097</v>
       </c>
-      <c r="Q3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="0" t="n">
+      <c r="Q3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1575,58 +1575,58 @@
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.0525830090845009</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.219965865437036</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>3.16720279972023</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>0.141174873304092</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="n">
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>0.00632988425354508</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.0244791009939364</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>0.020346056529252</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>0.0226067294769467</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <v>0.00678201884308401</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="1" t="n">
         <v>0.00791235531693135</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="1" t="n">
         <v>0.0126597685070902</v>
       </c>
-      <c r="N4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="0" t="n">
+      <c r="N4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1634,58 +1634,58 @@
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>0.0140991286545643</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>0.0168986904626588</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>0.131754822736532</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>2.29728382015173</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>0.0598374302948992</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0" t="n">
+      <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>0.0152861090694507</v>
       </c>
-      <c r="J5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="J5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="n">
         <v>0.0200469555725043</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="1" t="n">
         <v>0.00764305453472535</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="1" t="n">
         <v>0.00764305453472535</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" s="1" t="n">
         <v>0.00833787767424584</v>
       </c>
-      <c r="O5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="0" t="n">
+      <c r="O5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1693,58 +1693,58 @@
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>0.0573298559552663</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.0201930099450417</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <v>0.0587030425404758</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>0.219868593802752</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>0.00597851262739408</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>0.00597851262739408</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="n">
+      <c r="I6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="n">
         <v>0.00597851262739408</v>
       </c>
-      <c r="K6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="0" t="n">
+      <c r="K6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="n">
         <v>0.00597851262739408</v>
       </c>
-      <c r="M6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="0" t="n">
+      <c r="M6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1752,58 +1752,58 @@
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>0.0363668646854764</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>0.0413519183194379</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>0.00548912486794281</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <v>0.005662441153356</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="0" t="n">
+      <c r="G7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="n">
         <v>0.00606188021262328</v>
       </c>
-      <c r="N7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="0" t="n">
+      <c r="N7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1811,58 +1811,58 @@
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>0.07633683806294</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>0.0269649860593295</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>0.0209911431641172</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <v>0.00559934189875915</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0" t="n">
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="n">
         <v>0.00356918862495779</v>
       </c>
-      <c r="K8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="0" t="n">
+      <c r="K8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1870,58 +1870,58 @@
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>0.0449845565943698</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>0.037501768242368</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>0.0167785859663173</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>0.0135071259717001</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0" t="n">
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="n">
         <v>0.00679813835596866</v>
       </c>
-      <c r="K9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="0" t="n">
+      <c r="K9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1929,58 +1929,58 @@
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>0.0494808489924432</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>0.0407849679504824</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>0.0175692210625952</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="n">
         <v>0.00507470884262633</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="0" t="n">
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="n">
         <v>0.00323477176489053</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <v>0.00640663022777376</v>
       </c>
-      <c r="J10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="0" t="n">
+      <c r="J10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="n">
         <v>0.00543268817896834</v>
       </c>
-      <c r="N10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="0" t="n">
+      <c r="N10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1988,58 +1988,58 @@
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>0.0435961368554065</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>0.0387922239601805</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>0.00506109192222155</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>0.0160296687084888</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="0" t="n">
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="n">
         <v>0.0104331448581074</v>
       </c>
-      <c r="N11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="0" t="n">
+      <c r="N11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2047,58 +2047,58 @@
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>0.0104983932280359</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>0.00934361454725059</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>0.00626989237071717</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>0.00648951361704731</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>0.0051742887897345</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="0" t="n">
+      <c r="G12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="n">
         <v>0.0065716948524662</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="1" t="n">
         <v>0.011078585359002</v>
       </c>
-      <c r="N12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="0" t="n">
+      <c r="N12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2106,58 +2106,58 @@
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>0.0113295400083717</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>0.00941537577580816</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>0.011146334032325</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>0.00721047928397862</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="0" t="n">
+      <c r="F13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="n">
         <v>0.00615469162565827</v>
       </c>
-      <c r="H13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0" t="n">
+      <c r="H13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="n">
         <v>0.00615469162565827</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="1" t="n">
         <v>0.0123093832513165</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="1" t="n">
         <v>0.0123093832513165</v>
       </c>
-      <c r="M13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="0" t="n">
+      <c r="M13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="n">
         <v>0.0123093832513165</v>
       </c>
-      <c r="O13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="0" t="n">
+      <c r="O13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2165,58 +2165,58 @@
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>0.00303011617502725</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>0.00351112473030231</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="0" t="n">
+      <c r="D14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <v>0.00848765191486056</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="0" t="n">
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="n">
         <v>0.0132822349978325</v>
       </c>
-      <c r="N14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="0" t="n">
+      <c r="N14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2224,58 +2224,58 @@
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>0.00427277953638262</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>0.00498543402266541</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="0" t="n">
+      <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2283,58 +2283,58 @@
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="0" t="n">
+      <c r="B16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="n">
         <v>0.00459198528329844</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="0" t="n">
+      <c r="D16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2342,58 +2342,58 @@
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="0" t="n">
+      <c r="B17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2401,58 +2401,58 @@
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" s="0" t="n">
+      <c r="B18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2460,58 +2460,58 @@
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" s="0" t="n">
+      <c r="B19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2534,10 +2534,10 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2603,40 +2603,40 @@
         <v>19</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.176730010743033</v>
+        <v>0.326488981672786</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.0196676287552263</v>
+        <v>0.0565796723335984</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.00355485643797479</v>
+        <v>0.00710971287594957</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0</v>
+        <v>0.00678058383672375</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0.0167018724183168</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.00318711266852912</v>
+        <v>0.0186051985778974</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.0104760503739893</v>
+        <v>0.0175857632499389</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.00716923748124259</v>
+        <v>0.0267723662840316</v>
       </c>
       <c r="J2" s="0" t="n">
+        <v>0.0101905884555277</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0.0160908329341893</v>
+      </c>
+      <c r="L2" s="0" t="n">
         <v>0.00308087557957815</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <v>0.0061617511591563</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" s="0" t="n">
-        <v>0</v>
+        <v>0.00355485643797479</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>0</v>
@@ -2662,40 +2662,40 @@
         <v>20</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.0206471354330691</v>
+        <v>0.0593975090728744</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.180168918099154</v>
+        <v>0.451988809063628</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.0327183265313234</v>
+        <v>0.0968825189006926</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0</v>
+        <v>0.00347012554120097</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0</v>
+        <v>0.00721786112569801</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0</v>
+        <v>0.0215888758439807</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.00390389123385109</v>
+        <v>0.00836548121539519</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0</v>
+        <v>0.0121132167998922</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0</v>
+        <v>0.0164186511320823</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0</v>
+        <v>0.00765162681834813</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0</v>
+        <v>0.0109655967101951</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.00368015432436735</v>
+        <v>0.00736030864873471</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.032264671086805</v>
+        <v>0.0955391958509677</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.0158247106338627</v>
+        <v>0.136092511451219</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0.0158247106338627</v>
+        <v>0.0317782988408724</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0</v>
@@ -2739,16 +2739,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0</v>
+        <v>0.0114541560640316</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0</v>
+        <v>0.0339100942154201</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0</v>
+        <v>0.013564037686168</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>0.00678201884308401</v>
+        <v>0.027128075372336</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>0</v>
@@ -2780,34 +2780,34 @@
         <v>22</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0</v>
+        <v>0.00655118960119316</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
+        <v>0.00319367310539063</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.014768789201818</v>
+        <v>0.029657856477257</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0.256091957137551</v>
+        <v>0.605488735867852</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0</v>
+        <v>0.0191964216425581</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0</v>
+        <v>0.00655118960119316</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0</v>
+        <v>0.00764305453472535</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>0</v>
+        <v>0.014889067275439</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0</v>
+        <v>0.0188324991690704</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.0112536708280359</v>
+        <v>0.0761029489745928</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0</v>
+        <v>0.00562683541401795</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0</v>
+        <v>0.019131240407661</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0</v>
+        <v>0.0119570252547882</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -2898,10 +2898,10 @@
         <v>24</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.00286120333476982</v>
+        <v>0.0167026590370595</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0</v>
+        <v>0.00617237101574674</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0</v>
+        <v>0.00532935637962918</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0</v>
+        <v>0.00734058436169861</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -2957,19 +2957,19 @@
         <v>25</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.00929998330422355</v>
+        <v>0.0156115424017554</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0</v>
+        <v>0.0182560499377641</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0</v>
+        <v>0.00982208577936686</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0</v>
+        <v>0.00601937889025305</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0</v>
+        <v>0.0179178940760293</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>0</v>
@@ -2978,19 +2978,19 @@
         <v>0</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0</v>
+        <v>0.0106981098149403</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0</v>
+        <v>0.00418852750086121</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0</v>
+        <v>0.0083837095373405</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>0</v>
+        <v>0.0100772452032306</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>0</v>
+        <v>0.00418852750086121</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>0</v>
@@ -3016,34 +3016,34 @@
         <v>26</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.00612057242806271</v>
+        <v>0.0228562950161386</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.00317474596346404</v>
+        <v>0.0068030270645658</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0</v>
+        <v>0.0279643099438622</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0</v>
+        <v>0.0107696469444653</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0</v>
+        <v>0.00698069081872075</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0</v>
+        <v>0.0102882506340217</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0</v>
+        <v>0.0388546985303119</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0</v>
+        <v>0.00349034540936037</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>0</v>
+        <v>0.00409736200229261</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>0</v>
@@ -3075,16 +3075,16 @@
         <v>27</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.00247875095232959</v>
+        <v>0.00819894545770556</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0</v>
+        <v>0.00928347174541255</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0</v>
+        <v>0.0105415326375571</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>0</v>
+        <v>0.00636462197512245</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>0</v>
@@ -3093,16 +3093,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0</v>
+        <v>0.00379608138429881</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0</v>
+        <v>0.00328933470224927</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>0</v>
+        <v>0.00586062315476256</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>0</v>
@@ -3134,16 +3134,16 @@
         <v>28</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.00476028936336584</v>
+        <v>0.0124310474223705</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0</v>
+        <v>0.0120825574258495</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.00506109192222155</v>
+        <v>0.0202443676888862</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>0</v>
+        <v>0.0119053895710248</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0</v>
@@ -3152,13 +3152,13 @@
         <v>0</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0</v>
+        <v>0.00729593287967783</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0</v>
+        <v>0.0037077842746433</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0</v>
+        <v>0.00562748388257649</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>0</v>
+        <v>0.0032512172355889</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>0</v>
@@ -3193,10 +3193,10 @@
         <v>29</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0</v>
+        <v>0.00252739096230493</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0</v>
+        <v>0.00597921602557267</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0</v>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0</v>
+        <v>0.00931226880395304</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>30</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0</v>
+        <v>0.00324020374992878</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
+        <v>0.00952082798449721</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0</v>
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0</v>
+        <v>0.00430058003268243</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>0</v>
+        <v>0.00564195813815479</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>0</v>
@@ -3679,10 +3679,10 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3748,40 +3748,40 @@
         <v>19</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.395946948598294</v>
+        <v>0.66543801854745</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.0506665872920879</v>
+        <v>0.115840021838605</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.010105968489763</v>
+        <v>0.0136608249277378</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0.00298149249636595</v>
+        <v>0.0097620763330897</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0.0197827479978949</v>
+        <v>0.0229698606664241</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.00616860516489507</v>
+        <v>0.0246675666538415</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.0140309068119641</v>
+        <v>0.0274086079360209</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.0139112065877465</v>
+        <v>0.0438111609350142</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0.0137454448935025</v>
+        <v>0.0279648706454017</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>0.0186977276553708</v>
+        <v>0.031707685009982</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>0</v>
+        <v>0.00663573201755293</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>0.00308087557957815</v>
+        <v>0.00663573201755293</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>0</v>
@@ -3807,43 +3807,43 @@
         <v>20</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.0531899347283118</v>
+        <v>0.121609201050015</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.421357515179227</v>
+        <v>1.10004962584951</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.0593001517409486</v>
+        <v>0.180622932660125</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0.00749547116899409</v>
+        <v>0.0109655967101951</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0.00374773558449704</v>
+        <v>0.0164186511320823</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0</v>
+        <v>0.0147133322946921</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0</v>
+        <v>0.0327106282035298</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.00804258096902085</v>
+        <v>0.0642762025635445</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.00374773558449704</v>
+        <v>0.0318780604181326</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0.00749547116899409</v>
+        <v>0.0426528002235616</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0</v>
+        <v>0.00765162681834813</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0</v>
+        <v>0.023022174343227</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>0</v>
+        <v>0.00390389123385109</v>
       </c>
       <c r="O3" s="0" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.0104621731674514</v>
+        <v>0.0141423274918187</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.0584779264149591</v>
+        <v>0.178118508213854</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.082288495296086</v>
+        <v>0.625302137332346</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0.0317782988408724</v>
+        <v>0.070705054065976</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0</v>
+        <v>0.0177840403175767</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0</v>
+        <v>0.0470219973120491</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0</v>
+        <v>0.027128075372336</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>0.00678201884308401</v>
+        <v>0.0339100942154201</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>0</v>
+        <v>0.00632988425354508</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>0</v>
@@ -3925,37 +3925,37 @@
         <v>22</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.00288062549015922</v>
+        <v>0.00943181509135238</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.00689833390764375</v>
+        <v>0.0100920070130344</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.029657856477257</v>
+        <v>0.0659871806293282</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0.631296452478613</v>
+        <v>1.35748589372602</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0</v>
+        <v>0.0407483310964817</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0</v>
+        <v>0.00655118960119316</v>
       </c>
       <c r="I5" s="0" t="n">
+        <v>0.0159809322089712</v>
+      </c>
+      <c r="J5" s="0" t="n">
         <v>0.00764305453472535</v>
       </c>
-      <c r="J5" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="K5" s="0" t="n">
-        <v>0.00764305453472535</v>
+        <v>0.0290833114113575</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>0</v>
+        <v>0.00655118960119316</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>0</v>
@@ -3984,34 +3984,34 @@
         <v>23</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.018751126941687</v>
+        <v>0.0217720396193093</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.00338377823749341</v>
+        <v>0.0148241713261616</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0</v>
+        <v>0.0399758312150324</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.030384911235697</v>
+        <v>0.290204036477976</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0</v>
+        <v>0.00562683541401795</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0</v>
+        <v>0.019131240407661</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0</v>
+        <v>0.0119570252547882</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>0</v>
+        <v>0.00735816938756194</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>0</v>
@@ -4043,10 +4043,10 @@
         <v>24</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.00553781290600611</v>
+        <v>0.0221450984985733</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0</v>
+        <v>0.0125821409167145</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0</v>
+        <v>0.00532935637962918</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>0</v>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0</v>
+        <v>0.00734058436169861</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -4102,40 +4102,40 @@
         <v>25</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.0124557628529895</v>
+        <v>0.0243316504882304</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0</v>
+        <v>0.0276608595229739</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0</v>
+        <v>0.0152500427378911</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0</v>
+        <v>0.00601937889025305</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0</v>
+        <v>0.0179178940760293</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0</v>
+        <v>0.00837705500172241</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0</v>
+        <v>0.0148866373158015</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.00356918862495779</v>
+        <v>0.007757716125819</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0</v>
+        <v>0.0083837095373405</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>0</v>
+        <v>0.0100772452032306</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>0</v>
+        <v>0.00418852750086121</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>0</v>
@@ -4161,37 +4161,37 @@
         <v>26</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.0118763742594405</v>
+        <v>0.0374027760081661</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.00654043617963297</v>
+        <v>0.0522710809322701</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0</v>
+        <v>0.0387771764554889</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>0.00675356298585006</v>
+        <v>0.014121086243141</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0</v>
+        <v>0.0107696469444653</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0</v>
+        <v>0.00698069081872075</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0</v>
+        <v>0.0143163099325132</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0</v>
+        <v>0.0470494225348972</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.00343244813979973</v>
+        <v>0.0104131389585205</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>0</v>
+        <v>0.0137568929226974</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0</v>
+        <v>0.00294497893914782</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>0</v>
@@ -4220,16 +4220,16 @@
         <v>27</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.0110590427103935</v>
+        <v>0.0224994317211455</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.00287223435217184</v>
+        <v>0.0244310886265093</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0</v>
+        <v>0.0210830652751143</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>0</v>
+        <v>0.00636462197512245</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>0</v>
@@ -4238,22 +4238,22 @@
         <v>0</v>
       </c>
       <c r="H10" s="0" t="n">
+        <v>0.00703085314918934</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.00981344116938907</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.0144320586433578</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.00586062315476256</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>0.00390868254924273</v>
+      </c>
+      <c r="M10" s="0" t="n">
         <v>0.00323477176489053</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>0.00323477176489053</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>0</v>
@@ -4279,31 +4279,31 @@
         <v>28</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.0144450159991791</v>
+        <v>0.0244959187398666</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.00551595012919216</v>
+        <v>0.031388382878022</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.00506109192222155</v>
+        <v>0.0253054596111078</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>0.00611143331312604</v>
+        <v>0.0232551942954017</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0</v>
+        <v>0.00599733382853211</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0</v>
+        <v>0.00729593287967783</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0</v>
+        <v>0.0124488857021149</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0</v>
+        <v>0.00562748388257649</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>0</v>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>0</v>
+        <v>0.0032512172355889</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>0</v>
@@ -4338,16 +4338,16 @@
         <v>29</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0</v>
+        <v>0.005443611303426</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0</v>
+        <v>0.00597921602557267</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0</v>
+        <v>0.00501591389657373</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>0</v>
+        <v>0.00556244024318341</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>0</v>
@@ -4356,13 +4356,13 @@
         <v>0</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0</v>
+        <v>0.00931226880395304</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0</v>
+        <v>0.00282983677912819</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0</v>
+        <v>0.00398538180699064</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>0</v>
@@ -4397,10 +4397,10 @@
         <v>30</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.00280817658327161</v>
+        <v>0.00604838033320039</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
+        <v>0.0199888950454636</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0</v>
@@ -4415,13 +4415,13 @@
         <v>0</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0</v>
+        <v>0.00430058003268243</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0</v>
+        <v>0.00366467244878175</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>0</v>
@@ -4459,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
+        <v>0.0036574215940649</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0</v>
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>0</v>
+        <v>0.00564195813815479</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>0</v>
@@ -4824,10 +4824,10 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4893,13 +4893,13 @@
         <v>19</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1.41242394291239</v>
+        <v>2.35224942766253</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.131347712326754</v>
+        <v>0.276013042560514</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.0406867515694042</v>
+        <v>0.0530102538877168</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0.011611326470378</v>
@@ -4908,22 +4908,22 @@
         <v>0.0316573344293626</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.0312598020965138</v>
+        <v>0.0343406776760919</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0.0484973629139208</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.0356998797372115</v>
+        <v>0.0419678679853188</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0.0349575381925814</v>
+        <v>0.0412255264406887</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>0.0280168029196531</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>0.00308087557957815</v>
+        <v>0.00924262673873444</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>0.00934886382768542</v>
@@ -4952,46 +4952,46 @@
         <v>20</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.13788922086063</v>
+        <v>0.289759316792372</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2.08770681924731</v>
+        <v>4.03621696489823</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.127695826441787</v>
+        <v>0.162830847546447</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0.0111217523595491</v>
+        <v>0.0237926679071343</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.0336428671219434</v>
+        <v>0.0770491803201658</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.0193310779255902</v>
+        <v>0.063654483983921</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.0261151733586381</v>
+        <v>0.0623011467700616</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.0341658646142244</v>
+        <v>0.0663859802642753</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0.0365230713211402</v>
+        <v>0.0568456136870736</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0.0119570611505382</v>
+        <v>0.0203225423659334</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.00737401677505206</v>
+        <v>0.0150256435934002</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>0.00374773558449704</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.00390389123385109</v>
+        <v>0.00780778246770218</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>0.00347012554120097</v>
@@ -5011,40 +5011,40 @@
         <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.0421208359170495</v>
+        <v>0.054878704241523</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.125925261958542</v>
+        <v>0.160573118977895</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>2.61424219671412</v>
+        <v>4.73113634493541</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0.0763194682473525</v>
+        <v>0.144394621656319</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>0.0126597685070902</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.00632988425354508</v>
+        <v>0.0689505249046874</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.013564037686168</v>
+        <v>0.0567428909871362</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.020346056529252</v>
+        <v>0.0406921130585041</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.00791235531693135</v>
+        <v>0.0425006514166598</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>0</v>
+        <v>0.0420485168271209</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>0</v>
+        <v>0.0321015558572643</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>0.00632988425354508</v>
+        <v>0.0126597685070902</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>0</v>
@@ -5076,34 +5076,34 @@
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.0712269667748653</v>
+        <v>0.134759729795951</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1.30328968884343</v>
+        <v>2.51883314121027</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.0480078184992716</v>
+        <v>0.175338210014458</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0</v>
+        <v>0.00833787767424584</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0</v>
+        <v>0.0294803532053692</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0</v>
+        <v>0.0301751763448897</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>0</v>
+        <v>0.00833787767424584</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>0</v>
+        <v>0.0166757553484917</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>0.00764305453472535</v>
+        <v>0.0152861090694507</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>0</v>
@@ -5132,34 +5132,34 @@
         <v>0.0300064832541758</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.0100416752325615</v>
+        <v>0.0214820683212297</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0</v>
+        <v>0.0115910440206126</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0.0470976944990637</v>
+        <v>0.172014178261379</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.159098771331358</v>
+        <v>0.797603919937045</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.00597851262739408</v>
+        <v>0.0258806508114954</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.00597851262739408</v>
+        <v>0.0307365884490731</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0</v>
+        <v>0.011605348041412</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.00597851262739408</v>
+        <v>0.0158559487908509</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>0</v>
+        <v>0.0151924556178485</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>0.00597851262739408</v>
+        <v>0.011605348041412</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>0</v>
@@ -5188,40 +5188,40 @@
         <v>24</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.0280632218891928</v>
+        <v>0.0308290517794703</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.0287697774027234</v>
+        <v>0.0658887888133542</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.00548912486794281</v>
+        <v>0.0597922530258056</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0.005662441153356</v>
+        <v>0.0245123948654308</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0</v>
+        <v>0.0183851633594333</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0</v>
+        <v>0.0183851633594333</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0</v>
+        <v>0.00459629083985832</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0</v>
+        <v>0.0126480515737316</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>0</v>
+        <v>0.0130349221635799</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>0.00606188021262328</v>
+        <v>0.0171530427088637</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>0</v>
@@ -5250,31 +5250,31 @@
         <v>0.0430529301880954</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.0163468040907179</v>
+        <v>0.0538276956508168</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.0116313363396949</v>
+        <v>0.048657757021057</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0</v>
+        <v>0.00766102767850389</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0.00559934189875915</v>
+        <v>0.0287872048206794</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0</v>
+        <v>0.0181802888058259</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0</v>
+        <v>0.00801283521903883</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0</v>
+        <v>0.0199304899362542</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0</v>
+        <v>0.00419518203647929</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>0</v>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0</v>
+        <v>0.00400641760951941</v>
       </c>
       <c r="O8" s="0" t="n">
         <v>0</v>
@@ -5306,22 +5306,22 @@
         <v>26</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.030477955316227</v>
+        <v>0.0358291068370352</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.0212375387117823</v>
+        <v>0.0506649141534404</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.0167785859663173</v>
+        <v>0.0335571719326346</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>0</v>
+        <v>0.026049457231136</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0</v>
+        <v>0.0104528926225693</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0</v>
+        <v>0.00437094428522373</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
@@ -5330,13 +5330,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0</v>
+        <v>0.00382849984823817</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0</v>
+        <v>0.0495833884532788</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>0</v>
@@ -5365,34 +5365,34 @@
         <v>27</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.0281254561723729</v>
+        <v>0.033168432247802</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.0261844433269422</v>
+        <v>0.050877680326864</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.00614922737190833</v>
+        <v>0.033030135597679</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>0</v>
+        <v>0.0251278581874964</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0.00507470884262633</v>
+        <v>0.0134589200612317</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0</v>
+        <v>0.0113352487778471</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0</v>
+        <v>0.0180630930109479</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0</v>
+        <v>0.00360801466083944</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0</v>
+        <v>0.0721602932167888</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>0</v>
+        <v>0.00318886848126787</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>0</v>
@@ -5427,46 +5427,46 @@
         <v>0.0216445107063044</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.0268774884767349</v>
+        <v>0.041832936594872</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0</v>
+        <v>0.0313787699177736</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>0</v>
+        <v>0.00666701815977386</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0</v>
+        <v>0.0123827304342045</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0</v>
+        <v>0.00365086199848147</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0</v>
+        <v>0.00306201328904897</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>0</v>
+        <v>0.00306201328904897</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>0.0104331448581074</v>
+        <v>0.0165571714362054</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0</v>
+        <v>0.00612402657809795</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>0</v>
+        <v>0.00918603986714692</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>0</v>
+        <v>0.0122480531561959</v>
       </c>
       <c r="Q11" s="0" t="n">
         <v>0</v>
@@ -5483,37 +5483,37 @@
         <v>29</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.00252739096230493</v>
+        <v>0.00758217288691479</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.00934361454725059</v>
+        <v>0.0158806583069875</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0</v>
+        <v>0.0254378490469097</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>0</v>
+        <v>0.0141589388008305</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0.0051742887897345</v>
+        <v>0.0100442076506611</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0</v>
+        <v>0.011911196920095</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0</v>
+        <v>0.0476447876803799</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>0</v>
+        <v>0.00325144297855375</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>0</v>
+        <v>0.00794079794672999</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>0.011078585359002</v>
@@ -5545,19 +5545,19 @@
         <v>0.00852136342510006</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.00640245552754955</v>
+        <v>0.0130459446749598</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.00557316701616249</v>
+        <v>0.011146334032325</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0.00721047928397862</v>
+        <v>0.0144209585679572</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.00615469162565827</v>
+        <v>0.0174156671877084</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0.00615469162565827</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>0.0123093832513165</v>
+        <v>0.0195347205025747</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>0.0123093832513165</v>
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0</v>
+        <v>0.00443870972958152</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>0</v>
+        <v>0.00779637983077176</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>0</v>
@@ -5663,7 +5663,7 @@
         <v>0.00427277953638262</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.00498543402266541</v>
+        <v>0.00997086804533081</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0</v>
@@ -5687,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>0</v>
+        <v>0.0159408764872878</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>0</v>
+        <v>0.0220242419916836</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>0</v>
@@ -5969,10 +5969,10 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
+      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -6038,13 +6038,13 @@
         <v>19</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.630155705929093</v>
+        <v>1.04112189002588</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.0434649994370266</v>
+        <v>0.149690354598309</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.0214002993691749</v>
+        <v>0.024481174948753</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0.011611326470378</v>
@@ -6053,22 +6053,22 @@
         <v>0.0219407268322315</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.0222159415242037</v>
+        <v>0.0252968171037819</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0.0328177703240578</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.0153118488204173</v>
+        <v>0.0215798370685246</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0.012910574271399</v>
+        <v>0.0160976869399281</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>0.0151062286482541</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>0.00308087557957815</v>
+        <v>0.0061617511591563</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>0.0061617511591563</v>
@@ -6097,13 +6097,13 @@
         <v>20</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.0456296862801056</v>
+        <v>0.157145381524152</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1.20512998455928</v>
+        <v>2.39227480417074</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.0340169009636611</v>
+        <v>0.0379207921975122</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
@@ -6112,31 +6112,31 @@
         <v>0.00721786112569801</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.0145918779007501</v>
+        <v>0.0307329189895363</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.0119570611505382</v>
+        <v>0.0246279766981234</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.0188973122329401</v>
+        <v>0.0389422445555774</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.0187386779224852</v>
+        <v>0.0333305558232353</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0.0148694879440461</v>
+        <v>0.0237926679071343</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0.00820932556604114</v>
+        <v>0.0121132167998922</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0</v>
+        <v>0.00390389123385109</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>0.00374773558449704</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.00390389123385109</v>
+        <v>0.00780778246770218</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>0.00347012554120097</v>
@@ -6156,37 +6156,37 @@
         <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.0221545948874078</v>
+        <v>0.0253440619685262</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.0335452401556723</v>
+        <v>0.0373950020467115</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1.27682808085795</v>
+        <v>2.2923223689624</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0.0584514494555017</v>
+        <v>0.0863751116120623</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0</v>
+        <v>0.00678201884308401</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="0" t="n">
+        <v>0.027128075372336</v>
+      </c>
+      <c r="J4" s="0" t="n">
         <v>0.013564037686168</v>
       </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" s="0" t="n">
-        <v>0</v>
+        <v>0.013564037686168</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>0</v>
+        <v>0.00678201884308401</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>0</v>
@@ -6221,13 +6221,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.0545512114263736</v>
+        <v>0.0806116361428011</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0.931063006957452</v>
+        <v>1.73110222189104</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.0172067080663673</v>
+        <v>0.0294934670230162</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>0</v>
@@ -6245,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>0</v>
+        <v>0.00833787767424584</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>0</v>
@@ -6283,10 +6283,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0.0168805062420539</v>
+        <v>0.02893433492691</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.0583784174204363</v>
+        <v>0.241813251917422</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>0</v>
@@ -6333,13 +6333,13 @@
         <v>24</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.0199441728564427</v>
+        <v>0.0227100027467202</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.0124782789044303</v>
+        <v>0.0262813283737101</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0</v>
+        <v>0.00588120521565301</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>0</v>
+        <v>0.00649487165638209</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>0.0291335670600978</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.0101111659101966</v>
+        <v>0.0208259835165243</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>0</v>
@@ -6451,13 +6451,13 @@
         <v>26</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.0130721405111925</v>
+        <v>0.0184232920320007</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.0153677861748888</v>
+        <v>0.0316688468774499</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.0111857239775449</v>
+        <v>0.0223714479550897</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
@@ -6510,13 +6510,13 @@
         <v>27</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.0103873387430771</v>
+        <v>0.0129515638661766</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.0143611717608592</v>
+        <v>0.0255442694005653</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0</v>
+        <v>0.0105415326375571</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
@@ -6572,10 +6572,10 @@
         <v>0.0116703868263162</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.0109425214368465</v>
+        <v>0.0175091287335038</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0</v>
+        <v>0.0101221838444431</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
@@ -6628,16 +6628,16 @@
         <v>29</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.00252739096230493</v>
+        <v>0.00505478192460986</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.00641501894288846</v>
+        <v>0.00946563936409901</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0</v>
+        <v>0.00537419346061472</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>0</v>
+        <v>0.00707946940041525</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>0.0051742887897345</v>
@@ -6690,7 +6690,7 @@
         <v>0.00561635316654322</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
+        <v>0.00338953527929094</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0</v>
@@ -6702,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0</v>
+        <v>0.00659431245606243</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0</v>
@@ -6808,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.00498543402266541</v>
+        <v>0.00997086804533081</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0</v>
